--- a/aichan/546880105654581773_2021-07-13_17-34-07.xlsx
+++ b/aichan/546880105654581773_2021-07-13_17-34-07.xlsx
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1633,11 +1633,11 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1769,11 +1769,11 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4014,7 +4014,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5278,11 +5278,11 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5609,7 +5609,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6346,7 +6346,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6772,7 +6772,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -6847,7 +6847,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -7068,7 +7068,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7484,7 +7484,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -7555,7 +7555,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -8041,11 +8041,11 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -8112,7 +8112,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -8254,7 +8254,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -8467,7 +8467,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -8763,7 +8763,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -9442,7 +9442,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -9509,7 +9509,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -10006,7 +10006,7 @@
         </is>
       </c>
       <c r="I137" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -10505,7 +10505,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -10576,7 +10576,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -11011,7 +11011,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -11090,7 +11090,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -11311,7 +11311,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -11390,7 +11390,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -11469,7 +11469,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -11540,7 +11540,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -11682,7 +11682,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -11757,7 +11757,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -11836,7 +11836,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -12053,7 +12053,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -12203,7 +12203,7 @@
         </is>
       </c>
       <c r="I167" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J167" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J175" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -13419,7 +13419,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13490,7 +13490,7 @@
         </is>
       </c>
       <c r="I185" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J185" t="inlineStr">
         <is>
@@ -14208,11 +14208,11 @@
         </is>
       </c>
       <c r="I195" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -14362,7 +14362,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -14642,7 +14642,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -14858,7 +14858,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -14933,7 +14933,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -15086,7 +15086,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -15302,7 +15302,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -15452,7 +15452,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -15590,7 +15590,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -16028,7 +16028,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -16405,7 +16405,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -16635,7 +16635,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -16844,7 +16844,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -17937,7 +17937,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -18380,7 +18380,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -18459,7 +18459,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -18605,7 +18605,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -18743,7 +18743,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -18818,7 +18818,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -18889,7 +18889,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -19201,7 +19201,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -19280,7 +19280,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -19356,7 +19356,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -19431,7 +19431,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -19949,7 +19949,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -20024,7 +20024,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -20375,7 +20375,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -20580,7 +20580,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -20651,7 +20651,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -20718,7 +20718,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -20860,7 +20860,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -20994,7 +20994,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -21230,7 +21230,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -21364,7 +21364,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -21861,7 +21861,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -22163,7 +22163,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -22382,7 +22382,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -22741,7 +22741,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -22812,7 +22812,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -22891,7 +22891,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -23328,11 +23328,11 @@
         </is>
       </c>
       <c r="I319" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -23608,7 +23608,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -23818,7 +23818,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -23960,7 +23960,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -24031,7 +24031,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -24165,11 +24165,11 @@
         </is>
       </c>
       <c r="I331" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -24315,7 +24315,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -24386,7 +24386,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -24591,7 +24591,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -24804,7 +24804,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -25017,7 +25017,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -25159,7 +25159,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -25234,7 +25234,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -25724,7 +25724,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -25795,7 +25795,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -25870,7 +25870,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -26016,7 +26016,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -26087,7 +26087,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -26158,7 +26158,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -26221,7 +26221,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -26659,7 +26659,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -26730,7 +26730,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -26805,7 +26805,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -26876,7 +26876,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -27018,7 +27018,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -27097,7 +27097,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -27176,7 +27176,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -27658,7 +27658,7 @@
         </is>
       </c>
       <c r="I380" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J380" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -28682,7 +28682,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -28829,7 +28829,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -28967,7 +28967,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -29035,7 +29035,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -29347,7 +29347,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -29414,7 +29414,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -29639,7 +29639,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -29785,7 +29785,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -29995,7 +29995,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -30066,7 +30066,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -30145,7 +30145,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -30212,7 +30212,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -30338,7 +30338,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -30413,7 +30413,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -30638,7 +30638,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -30713,7 +30713,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -31368,7 +31368,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -31435,7 +31435,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -31648,7 +31648,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -32015,7 +32015,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -32306,7 +32306,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -32528,7 +32528,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -32591,7 +32591,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -32726,7 +32726,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -32801,7 +32801,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -33026,7 +33026,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -33093,7 +33093,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -33168,7 +33168,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -33247,7 +33247,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -33322,7 +33322,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -33397,7 +33397,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -33472,7 +33472,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -33821,7 +33821,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -34181,7 +34181,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -34469,7 +34469,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -34607,7 +34607,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -34837,7 +34837,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -35247,7 +35247,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -35389,7 +35389,7 @@
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -35469,7 +35469,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -35615,7 +35615,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -36050,7 +36050,7 @@
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -36271,7 +36271,7 @@
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -36417,7 +36417,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -36721,7 +36721,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -36800,7 +36800,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -36867,7 +36867,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -36997,7 +36997,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -37431,7 +37431,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -37652,7 +37652,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -37723,7 +37723,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -38295,7 +38295,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -38437,7 +38437,7 @@
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -38587,7 +38587,7 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -39084,7 +39084,7 @@
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K537" t="inlineStr">
@@ -39230,7 +39230,7 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
@@ -39388,7 +39388,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -39467,7 +39467,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -40181,7 +40181,7 @@
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -40331,7 +40331,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
@@ -40544,7 +40544,7 @@
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K557" t="inlineStr">
@@ -40615,7 +40615,7 @@
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K558" t="inlineStr">
@@ -40768,7 +40768,7 @@
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K560" t="inlineStr">
@@ -40839,7 +40839,7 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K561" t="inlineStr">
@@ -41110,7 +41110,7 @@
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K564" t="inlineStr">
@@ -41319,7 +41319,7 @@
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K567" t="inlineStr">
@@ -41382,7 +41382,7 @@
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">
@@ -41595,7 +41595,7 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K571" t="inlineStr">
@@ -41962,7 +41962,7 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K576" t="inlineStr">
@@ -42407,7 +42407,7 @@
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K582" t="inlineStr">
@@ -42642,7 +42642,7 @@
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K585" t="inlineStr">
@@ -42843,7 +42843,7 @@
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K588" t="inlineStr">
@@ -42985,7 +42985,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K590" t="inlineStr">
@@ -43321,7 +43321,7 @@
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K594" t="inlineStr">
@@ -43392,7 +43392,7 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">
@@ -43605,7 +43605,7 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K598" t="inlineStr">
@@ -43676,7 +43676,7 @@
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K599" t="inlineStr">
@@ -43972,11 +43972,11 @@
         </is>
       </c>
       <c r="I603" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K603" t="inlineStr">
@@ -44047,7 +44047,7 @@
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K604" t="inlineStr">
@@ -44269,7 +44269,7 @@
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K607" t="inlineStr">
@@ -44349,7 +44349,7 @@
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K608" t="inlineStr">
@@ -44416,7 +44416,7 @@
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K609" t="inlineStr">
@@ -44554,7 +44554,7 @@
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K611" t="inlineStr">
@@ -44629,7 +44629,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K612" t="inlineStr">
@@ -45456,7 +45456,7 @@
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K623" t="inlineStr">
@@ -45535,7 +45535,7 @@
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K624" t="inlineStr">
@@ -45610,7 +45610,7 @@
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K625" t="inlineStr">
@@ -45753,7 +45753,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K627" t="inlineStr">
@@ -45824,7 +45824,7 @@
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K628" t="inlineStr">
@@ -45962,7 +45962,7 @@
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K630" t="inlineStr">
@@ -46037,7 +46037,7 @@
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K631" t="inlineStr">
@@ -46254,7 +46254,7 @@
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K634" t="inlineStr">
@@ -46392,7 +46392,7 @@
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K636" t="inlineStr">
@@ -46471,7 +46471,7 @@
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K637" t="inlineStr">
@@ -46538,7 +46538,7 @@
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K638" t="inlineStr">
@@ -46680,7 +46680,7 @@
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K640" t="inlineStr">
@@ -46755,11 +46755,11 @@
         </is>
       </c>
       <c r="I641" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
@@ -46828,7 +46828,7 @@
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K642" t="inlineStr">
@@ -47533,7 +47533,7 @@
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K652" t="inlineStr">
@@ -47600,7 +47600,7 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K653" t="inlineStr">
@@ -47806,7 +47806,7 @@
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K656" t="inlineStr">
@@ -48173,7 +48173,7 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K661" t="inlineStr">
@@ -48236,7 +48236,7 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K662" t="inlineStr">
@@ -48449,7 +48449,7 @@
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K665" t="inlineStr">
@@ -48528,7 +48528,7 @@
       </c>
       <c r="J666" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K666" t="inlineStr">
@@ -48674,7 +48674,7 @@
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K668" t="inlineStr">
@@ -48751,7 +48751,7 @@
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K669" t="inlineStr">
@@ -48818,7 +48818,7 @@
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K670" t="inlineStr">
@@ -49029,7 +49029,7 @@
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K673" t="inlineStr">
@@ -49108,7 +49108,7 @@
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K674" t="inlineStr">
@@ -49187,7 +49187,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K675" t="inlineStr">
@@ -49258,7 +49258,7 @@
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K676" t="inlineStr">
@@ -49325,7 +49325,7 @@
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K677" t="inlineStr">
@@ -49783,7 +49783,7 @@
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K683" t="inlineStr">
@@ -49980,7 +49980,7 @@
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K686" t="inlineStr">
@@ -50364,7 +50364,7 @@
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K691" t="inlineStr">
@@ -50431,7 +50431,7 @@
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K692" t="inlineStr">
@@ -50494,7 +50494,7 @@
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K693" t="inlineStr">
@@ -50569,7 +50569,7 @@
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K694" t="inlineStr">
@@ -50632,7 +50632,7 @@
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K695" t="inlineStr">
@@ -50778,7 +50778,7 @@
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K697" t="inlineStr">
@@ -50849,7 +50849,7 @@
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K698" t="inlineStr">
@@ -51140,7 +51140,7 @@
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K702" t="inlineStr">
@@ -51215,7 +51215,7 @@
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K703" t="inlineStr">
@@ -51282,7 +51282,7 @@
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K704" t="inlineStr">
@@ -51424,7 +51424,7 @@
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K706" t="inlineStr">
@@ -51495,7 +51495,7 @@
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K707" t="inlineStr">
@@ -51570,7 +51570,7 @@
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K708" t="inlineStr">
@@ -51712,11 +51712,11 @@
         </is>
       </c>
       <c r="I710" t="n">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K710" t="inlineStr">
@@ -52430,7 +52430,7 @@
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K720" t="inlineStr">
@@ -52493,7 +52493,7 @@
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K721" t="inlineStr">
@@ -52556,7 +52556,7 @@
         </is>
       </c>
       <c r="I722" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J722" t="inlineStr">
         <is>
@@ -52631,7 +52631,7 @@
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K723" t="inlineStr">
@@ -52840,7 +52840,7 @@
       </c>
       <c r="J726" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K726" t="inlineStr">
@@ -52911,7 +52911,7 @@
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K727" t="inlineStr">
@@ -53259,7 +53259,7 @@
       </c>
       <c r="J732" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K732" t="inlineStr">
@@ -53338,7 +53338,7 @@
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K733" t="inlineStr">
@@ -53567,7 +53567,7 @@
       </c>
       <c r="J736" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K736" t="inlineStr">
@@ -53642,7 +53642,7 @@
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K737" t="inlineStr">
@@ -53717,7 +53717,7 @@
       </c>
       <c r="J738" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K738" t="inlineStr">
@@ -54428,7 +54428,7 @@
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K747" t="inlineStr">
@@ -54732,7 +54732,7 @@
       </c>
       <c r="J751" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K751" t="inlineStr">
@@ -54886,7 +54886,7 @@
       </c>
       <c r="J753" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K753" t="inlineStr">
@@ -54949,7 +54949,7 @@
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K754" t="inlineStr">
@@ -55020,7 +55020,7 @@
       </c>
       <c r="J755" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K755" t="inlineStr">
@@ -55233,7 +55233,7 @@
       </c>
       <c r="J758" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K758" t="inlineStr">
@@ -55763,7 +55763,7 @@
       </c>
       <c r="J765" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K765" t="inlineStr">
@@ -55834,7 +55834,7 @@
       </c>
       <c r="J766" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K766" t="inlineStr">
@@ -55905,7 +55905,7 @@
       </c>
       <c r="J767" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K767" t="inlineStr">
@@ -56482,7 +56482,7 @@
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K775" t="inlineStr">
@@ -56553,7 +56553,7 @@
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K776" t="inlineStr">
@@ -56696,7 +56696,7 @@
       </c>
       <c r="J778" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K778" t="inlineStr">
@@ -56775,7 +56775,7 @@
       </c>
       <c r="J779" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K779" t="inlineStr">
@@ -56842,7 +56842,7 @@
       </c>
       <c r="J780" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K780" t="inlineStr">
@@ -57292,7 +57292,7 @@
       </c>
       <c r="J786" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K786" t="inlineStr">
@@ -57522,7 +57522,7 @@
       </c>
       <c r="J789" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K789" t="inlineStr">
@@ -57596,7 +57596,7 @@
       </c>
       <c r="J790" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K790" t="inlineStr">
@@ -58034,7 +58034,7 @@
       </c>
       <c r="J796" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K796" t="inlineStr">
@@ -58101,7 +58101,7 @@
       </c>
       <c r="J797" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K797" t="inlineStr">
@@ -58327,7 +58327,7 @@
       </c>
       <c r="J800" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K800" t="inlineStr">
@@ -58536,7 +58536,7 @@
       </c>
       <c r="J803" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K803" t="inlineStr">
@@ -58781,7 +58781,7 @@
       </c>
       <c r="J806" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K806" t="inlineStr">
@@ -58927,7 +58927,7 @@
       </c>
       <c r="J808" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K808" t="inlineStr">
@@ -59153,7 +59153,7 @@
       </c>
       <c r="J811" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K811" t="inlineStr">
@@ -59224,7 +59224,7 @@
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K812" t="inlineStr">
@@ -59299,7 +59299,7 @@
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K813" t="inlineStr">
@@ -59654,7 +59654,7 @@
       </c>
       <c r="J818" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K818" t="inlineStr">
@@ -60175,7 +60175,7 @@
       </c>
       <c r="J825" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K825" t="inlineStr">
@@ -60238,7 +60238,7 @@
       </c>
       <c r="J826" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K826" t="inlineStr">
@@ -60317,7 +60317,7 @@
       </c>
       <c r="J827" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K827" t="inlineStr">
@@ -60471,7 +60471,7 @@
       </c>
       <c r="J829" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K829" t="inlineStr">
@@ -60692,7 +60692,7 @@
       </c>
       <c r="J832" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K832" t="inlineStr">
@@ -60767,7 +60767,7 @@
       </c>
       <c r="J833" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K833" t="inlineStr">
@@ -60977,7 +60977,7 @@
       </c>
       <c r="J836" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K836" t="inlineStr">
@@ -61115,7 +61115,7 @@
       </c>
       <c r="J838" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K838" t="inlineStr">
@@ -61250,7 +61250,7 @@
       </c>
       <c r="J840" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K840" t="inlineStr">
@@ -61471,7 +61471,7 @@
       </c>
       <c r="J843" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K843" t="inlineStr">
@@ -61968,7 +61968,7 @@
       </c>
       <c r="J850" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K850" t="inlineStr">
@@ -62185,7 +62185,7 @@
       </c>
       <c r="J853" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K853" t="inlineStr">
@@ -62260,7 +62260,7 @@
       </c>
       <c r="J854" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K854" t="inlineStr">
@@ -62869,11 +62869,11 @@
         </is>
       </c>
       <c r="I862" t="n">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="J862" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K862" t="inlineStr">
@@ -63023,7 +63023,7 @@
       </c>
       <c r="J864" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K864" t="inlineStr">
@@ -63256,7 +63256,7 @@
       </c>
       <c r="J867" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K867" t="inlineStr">
@@ -63331,7 +63331,7 @@
       </c>
       <c r="J868" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K868" t="inlineStr">
@@ -63489,7 +63489,7 @@
       </c>
       <c r="J870" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K870" t="inlineStr">
@@ -63647,7 +63647,7 @@
       </c>
       <c r="J872" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K872" t="inlineStr">
@@ -64354,7 +64354,7 @@
       </c>
       <c r="J882" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K882" t="inlineStr">
@@ -64429,7 +64429,7 @@
       </c>
       <c r="J883" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K883" t="inlineStr">
@@ -64504,11 +64504,11 @@
         </is>
       </c>
       <c r="I884" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K884" t="inlineStr">
@@ -64879,7 +64879,7 @@
       </c>
       <c r="J889" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K889" t="inlineStr">
@@ -64958,7 +64958,7 @@
       </c>
       <c r="J890" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K890" t="inlineStr">
@@ -65400,7 +65400,7 @@
       </c>
       <c r="J896" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K896" t="inlineStr">
@@ -66065,7 +66065,7 @@
       </c>
       <c r="J905" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K905" t="inlineStr">
@@ -66270,7 +66270,7 @@
       </c>
       <c r="J908" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K908" t="inlineStr">
@@ -67371,11 +67371,11 @@
         </is>
       </c>
       <c r="I923" t="n">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="J923" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K923" t="inlineStr">
@@ -68236,7 +68236,7 @@
       </c>
       <c r="J935" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K935" t="inlineStr">
@@ -68512,7 +68512,7 @@
         </is>
       </c>
       <c r="I939" t="n">
-        <v>1922</v>
+        <v>1927</v>
       </c>
       <c r="J939" t="inlineStr">
         <is>
@@ -69611,7 +69611,7 @@
       </c>
       <c r="J954" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K954" t="inlineStr">
@@ -70349,7 +70349,7 @@
       </c>
       <c r="J964" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K964" t="inlineStr">

--- a/aichan/546880105654581773_2021-07-13_17-34-07.xlsx
+++ b/aichan/546880105654581773_2021-07-13_17-34-07.xlsx
@@ -900,7 +900,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2535,7 +2535,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4378,7 +4378,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4591,11 +4591,11 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5077,11 +5077,11 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5144,11 +5144,11 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5574,7 +5574,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5822,11 +5822,11 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -5964,11 +5964,11 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6035,7 +6035,7 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -7060,7 +7060,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7352,7 +7352,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -7630,7 +7630,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -8115,7 +8115,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -8897,7 +8897,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10069,7 +10069,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -10576,7 +10576,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -10639,7 +10639,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -10928,7 +10928,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -11086,7 +11086,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -11303,7 +11303,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -11374,7 +11374,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -12124,7 +12124,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -12345,7 +12345,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -12650,7 +12650,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -12792,7 +12792,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -12863,7 +12863,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -13289,7 +13289,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -13569,7 +13569,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -13632,7 +13632,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -13774,7 +13774,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -13849,7 +13849,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -13920,7 +13920,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -14283,7 +14283,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -14354,7 +14354,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -14425,7 +14425,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -14575,7 +14575,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -15004,7 +15004,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -15071,7 +15071,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -15878,7 +15878,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -15953,7 +15953,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -16241,7 +16241,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -16393,7 +16393,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -16773,7 +16773,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -16848,7 +16848,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -16990,7 +16990,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -17136,7 +17136,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -17538,7 +17538,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -17755,7 +17755,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -17834,7 +17834,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -18296,7 +18296,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -18672,7 +18672,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -19719,7 +19719,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -19873,7 +19873,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -19944,7 +19944,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -20304,7 +20304,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -20450,7 +20450,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -20864,7 +20864,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -20994,7 +20994,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -21648,7 +21648,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -21782,7 +21782,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -22074,7 +22074,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -22745,7 +22745,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -22887,7 +22887,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -23025,7 +23025,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -23545,7 +23545,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -23616,7 +23616,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -23892,7 +23892,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -23963,7 +23963,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -24102,7 +24102,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -24244,7 +24244,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -24737,7 +24737,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -24804,7 +24804,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -24875,7 +24875,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -24950,7 +24950,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -25017,7 +25017,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -25230,7 +25230,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -25372,7 +25372,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -25589,7 +25589,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -25866,7 +25866,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -26158,7 +26158,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -26300,7 +26300,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -26434,7 +26434,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -28071,7 +28071,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -28146,7 +28146,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -28213,7 +28213,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -28456,7 +28456,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -28527,7 +28527,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -29248,7 +29248,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -29560,7 +29560,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -29694,7 +29694,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -30140,7 +30140,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -30697,7 +30697,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -31352,7 +31352,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -31427,7 +31427,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -31715,7 +31715,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -31782,7 +31782,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -31861,7 +31861,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -31940,7 +31940,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -32011,7 +32011,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -32378,7 +32378,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -32449,7 +32449,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -32804,7 +32804,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -33164,7 +33164,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -33239,7 +33239,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -33306,7 +33306,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -33381,7 +33381,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -33813,7 +33813,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -34034,7 +34034,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -34248,7 +34248,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -34327,7 +34327,7 @@
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -34603,7 +34603,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -34891,7 +34891,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -35682,7 +35682,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -35753,7 +35753,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -35895,7 +35895,7 @@
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -36108,7 +36108,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -36188,7 +36188,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -36405,7 +36405,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -36551,7 +36551,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -36630,7 +36630,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -36855,7 +36855,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -37210,7 +37210,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -37569,7 +37569,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -37644,7 +37644,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -37936,7 +37936,7 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -38287,7 +38287,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -38358,7 +38358,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -38508,7 +38508,7 @@
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -38650,7 +38650,7 @@
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -38721,7 +38721,7 @@
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -38800,7 +38800,7 @@
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -38938,7 +38938,7 @@
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -39017,7 +39017,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -39147,7 +39147,7 @@
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K538" t="inlineStr">
@@ -39443,7 +39443,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -39680,7 +39680,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -40327,7 +40327,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
@@ -40394,7 +40394,7 @@
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K555" t="inlineStr">
@@ -40611,7 +40611,7 @@
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K558" t="inlineStr">
@@ -40757,7 +40757,7 @@
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K560" t="inlineStr">
@@ -40828,7 +40828,7 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K561" t="inlineStr">
@@ -40901,7 +40901,7 @@
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
@@ -40981,7 +40981,7 @@
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K563" t="inlineStr">
@@ -41173,7 +41173,7 @@
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K565" t="inlineStr">
@@ -41244,7 +41244,7 @@
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -41390,7 +41390,7 @@
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">
@@ -41465,7 +41465,7 @@
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K569" t="inlineStr">
@@ -41670,7 +41670,7 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K572" t="inlineStr">
@@ -41741,7 +41741,7 @@
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K573" t="inlineStr">
@@ -42029,7 +42029,7 @@
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K577" t="inlineStr">
@@ -42332,7 +42332,7 @@
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K581" t="inlineStr">
@@ -42399,7 +42399,7 @@
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K582" t="inlineStr">
@@ -42470,7 +42470,7 @@
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K583" t="inlineStr">
@@ -42709,7 +42709,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K586" t="inlineStr">
@@ -42780,7 +42780,7 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K587" t="inlineStr">
@@ -42918,7 +42918,7 @@
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K589" t="inlineStr">
@@ -42989,7 +42989,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K590" t="inlineStr">
@@ -43135,7 +43135,7 @@
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K592" t="inlineStr">
@@ -43198,7 +43198,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -43454,7 +43454,7 @@
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -43751,7 +43751,7 @@
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K600" t="inlineStr">
@@ -43818,7 +43818,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -43889,7 +43889,7 @@
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K602" t="inlineStr">
@@ -44031,7 +44031,7 @@
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K604" t="inlineStr">
@@ -44327,7 +44327,7 @@
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K608" t="inlineStr">
@@ -44629,7 +44629,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K612" t="inlineStr">
@@ -44704,7 +44704,7 @@
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K613" t="inlineStr">
@@ -44767,7 +44767,7 @@
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K614" t="inlineStr">
@@ -45073,7 +45073,7 @@
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K618" t="inlineStr">
@@ -45211,7 +45211,7 @@
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K620" t="inlineStr">
@@ -45369,7 +45369,7 @@
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K622" t="inlineStr">
@@ -45748,7 +45748,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K627" t="inlineStr">
@@ -45966,7 +45966,7 @@
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K630" t="inlineStr">
@@ -46037,7 +46037,7 @@
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K631" t="inlineStr">
@@ -46329,7 +46329,7 @@
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K635" t="inlineStr">
@@ -46751,7 +46751,7 @@
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
@@ -46818,7 +46818,7 @@
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K642" t="inlineStr">
@@ -47108,7 +47108,7 @@
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K646" t="inlineStr">
@@ -47813,7 +47813,7 @@
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K656" t="inlineStr">
@@ -47948,7 +47948,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K658" t="inlineStr">
@@ -48019,7 +48019,7 @@
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K659" t="inlineStr">
@@ -48098,7 +48098,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K660" t="inlineStr">
@@ -48169,7 +48169,7 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K661" t="inlineStr">
@@ -48315,7 +48315,7 @@
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K663" t="inlineStr">
@@ -48386,7 +48386,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K664" t="inlineStr">
@@ -48449,7 +48449,7 @@
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K665" t="inlineStr">
@@ -48591,7 +48591,7 @@
       </c>
       <c r="J667" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K667" t="inlineStr">
@@ -48741,7 +48741,7 @@
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K669" t="inlineStr">
@@ -48816,7 +48816,7 @@
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K670" t="inlineStr">
@@ -48964,7 +48964,7 @@
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K672" t="inlineStr">
@@ -49167,7 +49167,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K675" t="inlineStr">
@@ -49242,7 +49242,7 @@
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K676" t="inlineStr">
@@ -49321,7 +49321,7 @@
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K677" t="inlineStr">
@@ -49471,7 +49471,7 @@
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K679" t="inlineStr">
@@ -49617,7 +49617,7 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K681" t="inlineStr">
@@ -49696,7 +49696,7 @@
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K682" t="inlineStr">
@@ -49842,7 +49842,7 @@
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K684" t="inlineStr">
@@ -49921,7 +49921,7 @@
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K685" t="inlineStr">
@@ -49996,7 +49996,7 @@
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K686" t="inlineStr">
@@ -50063,7 +50063,7 @@
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K687" t="inlineStr">
@@ -50130,7 +50130,7 @@
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K688" t="inlineStr">
@@ -50193,7 +50193,7 @@
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K689" t="inlineStr">
@@ -50272,7 +50272,7 @@
       </c>
       <c r="J690" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K690" t="inlineStr">
@@ -50352,7 +50352,7 @@
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K691" t="inlineStr">
@@ -50577,7 +50577,7 @@
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K694" t="inlineStr">
@@ -50644,7 +50644,7 @@
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K695" t="inlineStr">
@@ -50707,7 +50707,7 @@
       </c>
       <c r="J696" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K696" t="inlineStr">
@@ -50782,7 +50782,7 @@
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K697" t="inlineStr">
@@ -50920,7 +50920,7 @@
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K699" t="inlineStr">
@@ -50991,7 +50991,7 @@
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K700" t="inlineStr">
@@ -51138,7 +51138,7 @@
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K702" t="inlineStr">
@@ -51276,7 +51276,7 @@
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K704" t="inlineStr">
@@ -51428,7 +51428,7 @@
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K706" t="inlineStr">
@@ -51562,7 +51562,7 @@
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K708" t="inlineStr">
@@ -51637,7 +51637,7 @@
       </c>
       <c r="J709" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K709" t="inlineStr">
@@ -51783,7 +51783,7 @@
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K711" t="inlineStr">
@@ -51929,7 +51929,7 @@
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K713" t="inlineStr">
@@ -51996,7 +51996,7 @@
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K714" t="inlineStr">
@@ -52154,7 +52154,7 @@
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K716" t="inlineStr">
@@ -52284,7 +52284,7 @@
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K718" t="inlineStr">
@@ -52355,7 +52355,7 @@
       </c>
       <c r="J719" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K719" t="inlineStr">
@@ -52576,7 +52576,7 @@
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K722" t="inlineStr">
@@ -52643,7 +52643,7 @@
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K723" t="inlineStr">
@@ -52773,7 +52773,7 @@
       </c>
       <c r="J725" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K725" t="inlineStr">
@@ -52911,7 +52911,7 @@
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K727" t="inlineStr">
@@ -53053,7 +53053,7 @@
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K729" t="inlineStr">
@@ -53400,7 +53400,7 @@
       </c>
       <c r="J734" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K734" t="inlineStr">
@@ -53472,7 +53472,7 @@
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K735" t="inlineStr">
@@ -53780,7 +53780,7 @@
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K739" t="inlineStr">
@@ -54227,7 +54227,7 @@
       </c>
       <c r="J745" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K745" t="inlineStr">
@@ -54294,7 +54294,7 @@
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K746" t="inlineStr">
@@ -54373,7 +54373,7 @@
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K747" t="inlineStr">
@@ -54491,7 +54491,7 @@
       </c>
       <c r="J748" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K748" t="inlineStr">
@@ -54570,7 +54570,7 @@
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K749" t="inlineStr">
@@ -55162,7 +55162,7 @@
       </c>
       <c r="J757" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K757" t="inlineStr">
@@ -55233,7 +55233,7 @@
       </c>
       <c r="J758" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K758" t="inlineStr">
@@ -55525,7 +55525,7 @@
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K762" t="inlineStr">
@@ -56047,7 +56047,7 @@
       </c>
       <c r="J769" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K769" t="inlineStr">
@@ -56399,7 +56399,7 @@
       </c>
       <c r="J774" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K774" t="inlineStr">
@@ -56766,7 +56766,7 @@
       </c>
       <c r="J779" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K779" t="inlineStr">
@@ -56909,7 +56909,7 @@
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K781" t="inlineStr">
@@ -57351,7 +57351,7 @@
       </c>
       <c r="J787" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K787" t="inlineStr">
@@ -57664,7 +57664,7 @@
       </c>
       <c r="J791" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K791" t="inlineStr">
@@ -57809,7 +57809,7 @@
       </c>
       <c r="J793" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K793" t="inlineStr">
@@ -57884,7 +57884,7 @@
       </c>
       <c r="J794" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K794" t="inlineStr">
@@ -59065,7 +59065,7 @@
       </c>
       <c r="J810" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K810" t="inlineStr">
@@ -59587,7 +59587,7 @@
       </c>
       <c r="J817" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K817" t="inlineStr">
@@ -60238,7 +60238,7 @@
       </c>
       <c r="J826" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K826" t="inlineStr">
@@ -60309,7 +60309,7 @@
       </c>
       <c r="J827" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K827" t="inlineStr">
@@ -60388,7 +60388,7 @@
       </c>
       <c r="J828" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K828" t="inlineStr">
@@ -60451,7 +60451,7 @@
       </c>
       <c r="J829" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K829" t="inlineStr">
@@ -60530,7 +60530,7 @@
       </c>
       <c r="J830" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K830" t="inlineStr">
@@ -60684,7 +60684,7 @@
       </c>
       <c r="J832" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K832" t="inlineStr">
@@ -60751,7 +60751,7 @@
       </c>
       <c r="J833" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K833" t="inlineStr">
@@ -60826,7 +60826,7 @@
       </c>
       <c r="J834" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K834" t="inlineStr">
@@ -60905,7 +60905,7 @@
       </c>
       <c r="J835" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K835" t="inlineStr">
@@ -60980,7 +60980,7 @@
       </c>
       <c r="J836" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K836" t="inlineStr">
@@ -61190,7 +61190,7 @@
       </c>
       <c r="J839" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K839" t="inlineStr">
@@ -61253,7 +61253,7 @@
       </c>
       <c r="J840" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K840" t="inlineStr">
@@ -61328,7 +61328,7 @@
       </c>
       <c r="J841" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K841" t="inlineStr">
@@ -61763,7 +61763,7 @@
       </c>
       <c r="J847" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K847" t="inlineStr">
@@ -61830,7 +61830,7 @@
       </c>
       <c r="J848" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K848" t="inlineStr">
@@ -61905,7 +61905,7 @@
       </c>
       <c r="J849" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K849" t="inlineStr">
@@ -62106,7 +62106,7 @@
       </c>
       <c r="J852" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K852" t="inlineStr">
@@ -62181,7 +62181,7 @@
       </c>
       <c r="J853" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K853" t="inlineStr">
@@ -62398,7 +62398,7 @@
       </c>
       <c r="J856" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K856" t="inlineStr">
@@ -62473,7 +62473,7 @@
       </c>
       <c r="J857" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K857" t="inlineStr">
@@ -62544,7 +62544,7 @@
       </c>
       <c r="J858" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K858" t="inlineStr">
@@ -63315,7 +63315,7 @@
       </c>
       <c r="J868" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K868" t="inlineStr">
@@ -63390,7 +63390,7 @@
       </c>
       <c r="J869" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K869" t="inlineStr">
@@ -63544,7 +63544,7 @@
       </c>
       <c r="J871" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K871" t="inlineStr">
@@ -63860,7 +63860,7 @@
       </c>
       <c r="J875" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K875" t="inlineStr">
@@ -63931,7 +63931,7 @@
       </c>
       <c r="J876" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K876" t="inlineStr">
@@ -64006,7 +64006,7 @@
       </c>
       <c r="J877" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K877" t="inlineStr">
@@ -64073,7 +64073,7 @@
       </c>
       <c r="J878" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K878" t="inlineStr">
@@ -64223,7 +64223,7 @@
       </c>
       <c r="J880" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K880" t="inlineStr">
@@ -64362,7 +64362,7 @@
       </c>
       <c r="J882" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K882" t="inlineStr">
@@ -64433,7 +64433,7 @@
       </c>
       <c r="J883" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K883" t="inlineStr">
@@ -64500,7 +64500,7 @@
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K884" t="inlineStr">
@@ -64800,7 +64800,7 @@
       </c>
       <c r="J888" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K888" t="inlineStr">
@@ -64938,7 +64938,7 @@
       </c>
       <c r="J890" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K890" t="inlineStr">
@@ -65017,7 +65017,7 @@
       </c>
       <c r="J891" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K891" t="inlineStr">
@@ -65171,7 +65171,7 @@
       </c>
       <c r="J893" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K893" t="inlineStr">
@@ -65238,7 +65238,7 @@
       </c>
       <c r="J894" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K894" t="inlineStr">
@@ -65313,7 +65313,7 @@
       </c>
       <c r="J895" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K895" t="inlineStr">
@@ -65388,7 +65388,7 @@
       </c>
       <c r="J896" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K896" t="inlineStr">
@@ -65459,7 +65459,7 @@
       </c>
       <c r="J897" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K897" t="inlineStr">
@@ -65534,7 +65534,7 @@
       </c>
       <c r="J898" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K898" t="inlineStr">
@@ -65680,7 +65680,7 @@
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K900" t="inlineStr">
@@ -65759,7 +65759,7 @@
       </c>
       <c r="J901" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K901" t="inlineStr">
@@ -65828,7 +65828,7 @@
       </c>
       <c r="J902" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K902" t="inlineStr">
@@ -65903,7 +65903,7 @@
       </c>
       <c r="J903" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K903" t="inlineStr">
@@ -65982,7 +65982,7 @@
       </c>
       <c r="J904" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K904" t="inlineStr">
@@ -66053,7 +66053,7 @@
       </c>
       <c r="J905" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K905" t="inlineStr">
@@ -66120,7 +66120,7 @@
       </c>
       <c r="J906" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K906" t="inlineStr">
@@ -66199,7 +66199,7 @@
       </c>
       <c r="J907" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K907" t="inlineStr">
@@ -66349,7 +66349,7 @@
       </c>
       <c r="J909" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K909" t="inlineStr">
@@ -66412,7 +66412,7 @@
       </c>
       <c r="J910" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K910" t="inlineStr">
@@ -66483,7 +66483,7 @@
       </c>
       <c r="J911" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K911" t="inlineStr">
@@ -66554,7 +66554,7 @@
       </c>
       <c r="J912" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K912" t="inlineStr">
@@ -66625,7 +66625,7 @@
       </c>
       <c r="J913" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K913" t="inlineStr">
@@ -66700,7 +66700,7 @@
       </c>
       <c r="J914" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K914" t="inlineStr">
@@ -66767,7 +66767,7 @@
       </c>
       <c r="J915" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K915" t="inlineStr">
@@ -67000,7 +67000,7 @@
       </c>
       <c r="J918" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K918" t="inlineStr">
@@ -67067,7 +67067,7 @@
       </c>
       <c r="J919" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K919" t="inlineStr">
@@ -68319,7 +68319,7 @@
       </c>
       <c r="J936" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K936" t="inlineStr">
@@ -68956,7 +68956,7 @@
       </c>
       <c r="J945" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K945" t="inlineStr">
@@ -69757,7 +69757,7 @@
       </c>
       <c r="J956" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K956" t="inlineStr">
@@ -69824,7 +69824,7 @@
       </c>
       <c r="J957" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K957" t="inlineStr">
@@ -69899,7 +69899,7 @@
       </c>
       <c r="J958" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K958" t="inlineStr">
@@ -69970,7 +69970,7 @@
       </c>
       <c r="J959" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K959" t="inlineStr">
@@ -70033,7 +70033,7 @@
       </c>
       <c r="J960" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K960" t="inlineStr">
@@ -70112,7 +70112,7 @@
       </c>
       <c r="J961" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K961" t="inlineStr">
@@ -70183,7 +70183,7 @@
       </c>
       <c r="J962" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K962" t="inlineStr">
@@ -70250,7 +70250,7 @@
       </c>
       <c r="J963" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K963" t="inlineStr">
@@ -70321,7 +70321,7 @@
       </c>
       <c r="J964" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K964" t="inlineStr">
@@ -70400,7 +70400,7 @@
       </c>
       <c r="J965" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K965" t="inlineStr">
@@ -70479,7 +70479,7 @@
       </c>
       <c r="J966" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K966" t="inlineStr">
@@ -70633,7 +70633,7 @@
       </c>
       <c r="J968" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K968" t="inlineStr">
@@ -70704,7 +70704,7 @@
       </c>
       <c r="J969" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K969" t="inlineStr">
@@ -70783,7 +70783,7 @@
       </c>
       <c r="J970" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K970" t="inlineStr">
@@ -70862,7 +70862,7 @@
       </c>
       <c r="J971" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K971" t="inlineStr">
@@ -70942,7 +70942,7 @@
       </c>
       <c r="J972" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K972" t="inlineStr">

--- a/aichan/546880105654581773_2021-07-13_17-34-07.xlsx
+++ b/aichan/546880105654581773_2021-07-13_17-34-07.xlsx
@@ -900,7 +900,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1507,11 +1507,11 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1779,11 +1779,11 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6918,7 +6918,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -7977,7 +7977,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -8115,7 +8115,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -8530,7 +8530,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -8605,7 +8605,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -8830,7 +8830,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -8976,7 +8976,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -9110,7 +9110,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -9722,7 +9722,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -9848,7 +9848,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -10223,7 +10223,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -10789,7 +10789,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -10928,7 +10928,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -11007,7 +11007,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -11086,7 +11086,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -11374,7 +11374,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -11682,7 +11682,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -11824,7 +11824,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -12345,7 +12345,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -12420,7 +12420,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -12792,7 +12792,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -12997,7 +12997,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -13569,7 +13569,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -13774,7 +13774,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -13920,7 +13920,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -14070,7 +14070,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -14425,7 +14425,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -14504,7 +14504,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -14575,7 +14575,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -14709,7 +14709,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -15004,7 +15004,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -15071,7 +15071,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -15878,7 +15878,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -16241,7 +16241,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -16848,7 +16848,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -16990,7 +16990,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -17136,7 +17136,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -17221,7 +17221,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -17538,7 +17538,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -17834,7 +17834,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -18296,7 +18296,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -18747,7 +18747,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -19256,7 +19256,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -19493,7 +19493,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -19719,7 +19719,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -20162,7 +20162,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -20450,7 +20450,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -20864,7 +20864,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -21286,7 +21286,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -21506,7 +21506,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -21648,7 +21648,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -21782,7 +21782,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -21932,7 +21932,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -22074,7 +22074,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -22230,7 +22230,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -22887,7 +22887,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -23683,7 +23683,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -24102,7 +24102,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -24244,7 +24244,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -24670,7 +24670,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -24875,7 +24875,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -25088,7 +25088,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -25518,7 +25518,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -26872,7 +26872,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -27310,7 +27310,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -27666,7 +27666,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -27736,7 +27736,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -28281,7 +28281,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -28674,7 +28674,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -29109,7 +29109,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -29402,7 +29402,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -29773,7 +29773,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -29852,7 +29852,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -29931,7 +29931,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -30358,7 +30358,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -31715,7 +31715,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -32157,7 +32157,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -33239,7 +33239,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -33610,7 +33610,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -33813,7 +33813,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -34248,7 +34248,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -34327,7 +34327,7 @@
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -34891,7 +34891,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -35302,7 +35302,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -36188,7 +36188,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -36855,7 +36855,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -37210,7 +37210,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -37644,7 +37644,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -37723,7 +37723,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -37865,7 +37865,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -37936,7 +37936,7 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -38358,7 +38358,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -38508,7 +38508,7 @@
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -38650,7 +38650,7 @@
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -38938,7 +38938,7 @@
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -39017,7 +39017,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -39443,7 +39443,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -39897,7 +39897,7 @@
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K548" t="inlineStr">
@@ -40394,7 +40394,7 @@
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K555" t="inlineStr">
@@ -40544,7 +40544,7 @@
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K557" t="inlineStr">
@@ -40757,7 +40757,7 @@
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K560" t="inlineStr">
@@ -40901,7 +40901,7 @@
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
@@ -40981,7 +40981,7 @@
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K563" t="inlineStr">
@@ -41052,7 +41052,7 @@
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K564" t="inlineStr">
@@ -41244,7 +41244,7 @@
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -41390,7 +41390,7 @@
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">
@@ -41465,7 +41465,7 @@
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K569" t="inlineStr">
@@ -41670,7 +41670,7 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K572" t="inlineStr">
@@ -41808,7 +41808,7 @@
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K574" t="inlineStr">
@@ -42332,7 +42332,7 @@
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K581" t="inlineStr">
@@ -42470,7 +42470,7 @@
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K583" t="inlineStr">
@@ -42780,7 +42780,7 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K587" t="inlineStr">
@@ -42918,7 +42918,7 @@
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K589" t="inlineStr">
@@ -43056,7 +43056,7 @@
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K591" t="inlineStr">
@@ -43135,7 +43135,7 @@
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K592" t="inlineStr">
@@ -43198,7 +43198,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -43676,7 +43676,7 @@
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K599" t="inlineStr">
@@ -43751,7 +43751,7 @@
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K600" t="inlineStr">
@@ -43818,7 +43818,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -43889,7 +43889,7 @@
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K602" t="inlineStr">
@@ -44629,7 +44629,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K612" t="inlineStr">
@@ -44767,7 +44767,7 @@
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K614" t="inlineStr">
@@ -45211,7 +45211,7 @@
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K620" t="inlineStr">
@@ -45369,7 +45369,7 @@
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K622" t="inlineStr">
@@ -45748,7 +45748,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K627" t="inlineStr">
@@ -45895,7 +45895,7 @@
       </c>
       <c r="J629" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K629" t="inlineStr">
@@ -45966,7 +45966,7 @@
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K630" t="inlineStr">
@@ -46175,7 +46175,7 @@
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K633" t="inlineStr">
@@ -46329,7 +46329,7 @@
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K635" t="inlineStr">
@@ -46751,7 +46751,7 @@
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
@@ -46818,7 +46818,7 @@
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K642" t="inlineStr">
@@ -47679,7 +47679,7 @@
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K654" t="inlineStr">
@@ -47813,7 +47813,7 @@
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K656" t="inlineStr">
@@ -48019,7 +48019,7 @@
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K659" t="inlineStr">
@@ -48098,7 +48098,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K660" t="inlineStr">
@@ -48315,7 +48315,7 @@
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K663" t="inlineStr">
@@ -48386,7 +48386,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K664" t="inlineStr">
@@ -48449,7 +48449,7 @@
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K665" t="inlineStr">
@@ -48591,7 +48591,7 @@
       </c>
       <c r="J667" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K667" t="inlineStr">
@@ -48816,7 +48816,7 @@
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K670" t="inlineStr">
@@ -48964,7 +48964,7 @@
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K672" t="inlineStr">
@@ -49167,7 +49167,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K675" t="inlineStr">
@@ -49242,7 +49242,7 @@
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K676" t="inlineStr">
@@ -49321,7 +49321,7 @@
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K677" t="inlineStr">
@@ -49471,7 +49471,7 @@
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K679" t="inlineStr">
@@ -49538,7 +49538,7 @@
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K680" t="inlineStr">
@@ -49617,7 +49617,7 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K681" t="inlineStr">
@@ -49696,7 +49696,7 @@
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K682" t="inlineStr">
@@ -49842,7 +49842,7 @@
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K684" t="inlineStr">
@@ -49921,7 +49921,7 @@
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K685" t="inlineStr">
@@ -49996,7 +49996,7 @@
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K686" t="inlineStr">
@@ -50130,7 +50130,7 @@
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K688" t="inlineStr">
@@ -50352,7 +50352,7 @@
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K691" t="inlineStr">
@@ -50577,7 +50577,7 @@
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K694" t="inlineStr">
@@ -50644,7 +50644,7 @@
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K695" t="inlineStr">
@@ -50707,7 +50707,7 @@
       </c>
       <c r="J696" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K696" t="inlineStr">
@@ -50782,7 +50782,7 @@
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K697" t="inlineStr">
@@ -50920,7 +50920,7 @@
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K699" t="inlineStr">
@@ -50991,7 +50991,7 @@
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K700" t="inlineStr">
@@ -51138,7 +51138,7 @@
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K702" t="inlineStr">
@@ -51205,7 +51205,7 @@
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K703" t="inlineStr">
@@ -51276,7 +51276,7 @@
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K704" t="inlineStr">
@@ -51428,7 +51428,7 @@
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K706" t="inlineStr">
@@ -51637,7 +51637,7 @@
       </c>
       <c r="J709" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K709" t="inlineStr">
@@ -51708,7 +51708,7 @@
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K710" t="inlineStr">
@@ -51783,7 +51783,7 @@
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K711" t="inlineStr">
@@ -52075,7 +52075,7 @@
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K715" t="inlineStr">
@@ -52154,7 +52154,7 @@
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K716" t="inlineStr">
@@ -52284,7 +52284,7 @@
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K718" t="inlineStr">
@@ -52355,7 +52355,7 @@
       </c>
       <c r="J719" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K719" t="inlineStr">
@@ -52576,7 +52576,7 @@
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K722" t="inlineStr">
@@ -52643,7 +52643,7 @@
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K723" t="inlineStr">
@@ -52773,7 +52773,7 @@
       </c>
       <c r="J725" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K725" t="inlineStr">
@@ -52844,7 +52844,7 @@
       </c>
       <c r="J726" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K726" t="inlineStr">
@@ -52911,7 +52911,7 @@
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K727" t="inlineStr">
@@ -53053,7 +53053,7 @@
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K729" t="inlineStr">
@@ -53124,7 +53124,7 @@
       </c>
       <c r="J730" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K730" t="inlineStr">
@@ -53400,7 +53400,7 @@
       </c>
       <c r="J734" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K734" t="inlineStr">
@@ -53780,7 +53780,7 @@
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K739" t="inlineStr">
@@ -54227,7 +54227,7 @@
       </c>
       <c r="J745" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K745" t="inlineStr">
@@ -54294,7 +54294,7 @@
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K746" t="inlineStr">
@@ -54373,7 +54373,7 @@
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K747" t="inlineStr">
@@ -54491,7 +54491,7 @@
       </c>
       <c r="J748" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K748" t="inlineStr">
@@ -54720,7 +54720,7 @@
       </c>
       <c r="J751" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K751" t="inlineStr">
@@ -54870,7 +54870,7 @@
       </c>
       <c r="J753" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K753" t="inlineStr">
@@ -55020,7 +55020,7 @@
       </c>
       <c r="J755" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K755" t="inlineStr">
@@ -55162,7 +55162,7 @@
       </c>
       <c r="J757" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K757" t="inlineStr">
@@ -55233,7 +55233,7 @@
       </c>
       <c r="J758" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K758" t="inlineStr">
@@ -55304,7 +55304,7 @@
       </c>
       <c r="J759" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K759" t="inlineStr">
@@ -55679,7 +55679,7 @@
       </c>
       <c r="J764" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K764" t="inlineStr">
@@ -55758,7 +55758,7 @@
       </c>
       <c r="J765" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K765" t="inlineStr">
@@ -55825,7 +55825,7 @@
       </c>
       <c r="J766" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K766" t="inlineStr">
@@ -55976,7 +55976,7 @@
       </c>
       <c r="J768" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K768" t="inlineStr">
@@ -56047,7 +56047,7 @@
       </c>
       <c r="J769" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K769" t="inlineStr">
@@ -56186,7 +56186,7 @@
       </c>
       <c r="J771" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K771" t="inlineStr">
@@ -56328,7 +56328,7 @@
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K773" t="inlineStr">
@@ -56399,7 +56399,7 @@
       </c>
       <c r="J774" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K774" t="inlineStr">
@@ -57351,7 +57351,7 @@
       </c>
       <c r="J787" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K787" t="inlineStr">
@@ -57809,7 +57809,7 @@
       </c>
       <c r="J793" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K793" t="inlineStr">
@@ -57884,7 +57884,7 @@
       </c>
       <c r="J794" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K794" t="inlineStr">
@@ -59065,7 +59065,7 @@
       </c>
       <c r="J810" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K810" t="inlineStr">
@@ -60238,7 +60238,7 @@
       </c>
       <c r="J826" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K826" t="inlineStr">
@@ -60309,7 +60309,7 @@
       </c>
       <c r="J827" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K827" t="inlineStr">
@@ -60388,7 +60388,7 @@
       </c>
       <c r="J828" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K828" t="inlineStr">
@@ -60451,7 +60451,7 @@
       </c>
       <c r="J829" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K829" t="inlineStr">
@@ -60530,7 +60530,7 @@
       </c>
       <c r="J830" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K830" t="inlineStr">
@@ -60684,7 +60684,7 @@
       </c>
       <c r="J832" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K832" t="inlineStr">
@@ -60751,7 +60751,7 @@
       </c>
       <c r="J833" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K833" t="inlineStr">
@@ -60826,7 +60826,7 @@
       </c>
       <c r="J834" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K834" t="inlineStr">
@@ -61190,7 +61190,7 @@
       </c>
       <c r="J839" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K839" t="inlineStr">
@@ -61253,7 +61253,7 @@
       </c>
       <c r="J840" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K840" t="inlineStr">
@@ -61328,7 +61328,7 @@
       </c>
       <c r="J841" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K841" t="inlineStr">
@@ -61763,7 +61763,7 @@
       </c>
       <c r="J847" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K847" t="inlineStr">
@@ -61830,7 +61830,7 @@
       </c>
       <c r="J848" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K848" t="inlineStr">
@@ -61905,7 +61905,7 @@
       </c>
       <c r="J849" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K849" t="inlineStr">
@@ -62106,7 +62106,7 @@
       </c>
       <c r="J852" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K852" t="inlineStr">
@@ -62181,7 +62181,7 @@
       </c>
       <c r="J853" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K853" t="inlineStr">
@@ -62398,7 +62398,7 @@
       </c>
       <c r="J856" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K856" t="inlineStr">
@@ -62544,7 +62544,7 @@
       </c>
       <c r="J858" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K858" t="inlineStr">
@@ -62781,7 +62781,7 @@
       </c>
       <c r="J861" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K861" t="inlineStr">
@@ -63014,7 +63014,7 @@
       </c>
       <c r="J864" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K864" t="inlineStr">
@@ -63315,7 +63315,7 @@
       </c>
       <c r="J868" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K868" t="inlineStr">
@@ -63544,7 +63544,7 @@
       </c>
       <c r="J871" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K871" t="inlineStr">
@@ -63860,7 +63860,7 @@
       </c>
       <c r="J875" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K875" t="inlineStr">
@@ -63931,7 +63931,7 @@
       </c>
       <c r="J876" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K876" t="inlineStr">
@@ -64006,7 +64006,7 @@
       </c>
       <c r="J877" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K877" t="inlineStr">
@@ -64073,7 +64073,7 @@
       </c>
       <c r="J878" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K878" t="inlineStr">
@@ -64223,7 +64223,7 @@
       </c>
       <c r="J880" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K880" t="inlineStr">
@@ -64290,7 +64290,7 @@
       </c>
       <c r="J881" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K881" t="inlineStr">
@@ -64362,7 +64362,7 @@
       </c>
       <c r="J882" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K882" t="inlineStr">
@@ -64433,7 +64433,7 @@
       </c>
       <c r="J883" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K883" t="inlineStr">
@@ -64500,7 +64500,7 @@
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K884" t="inlineStr">
@@ -64800,7 +64800,7 @@
       </c>
       <c r="J888" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K888" t="inlineStr">
@@ -64938,7 +64938,7 @@
       </c>
       <c r="J890" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K890" t="inlineStr">
@@ -65017,7 +65017,7 @@
       </c>
       <c r="J891" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K891" t="inlineStr">
@@ -65238,7 +65238,7 @@
       </c>
       <c r="J894" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K894" t="inlineStr">
@@ -65313,7 +65313,7 @@
       </c>
       <c r="J895" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K895" t="inlineStr">
@@ -65388,7 +65388,7 @@
       </c>
       <c r="J896" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K896" t="inlineStr">
@@ -65459,7 +65459,7 @@
       </c>
       <c r="J897" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K897" t="inlineStr">
@@ -65534,7 +65534,7 @@
       </c>
       <c r="J898" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K898" t="inlineStr">
@@ -65680,7 +65680,7 @@
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K900" t="inlineStr">
@@ -65759,7 +65759,7 @@
       </c>
       <c r="J901" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K901" t="inlineStr">
@@ -65828,7 +65828,7 @@
       </c>
       <c r="J902" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K902" t="inlineStr">
@@ -65903,7 +65903,7 @@
       </c>
       <c r="J903" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K903" t="inlineStr">
@@ -65982,7 +65982,7 @@
       </c>
       <c r="J904" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K904" t="inlineStr">
@@ -66053,7 +66053,7 @@
       </c>
       <c r="J905" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K905" t="inlineStr">
@@ -66120,7 +66120,7 @@
       </c>
       <c r="J906" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K906" t="inlineStr">
@@ -66199,7 +66199,7 @@
       </c>
       <c r="J907" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K907" t="inlineStr">
@@ -66349,7 +66349,7 @@
       </c>
       <c r="J909" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K909" t="inlineStr">
@@ -66412,7 +66412,7 @@
       </c>
       <c r="J910" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K910" t="inlineStr">
@@ -66483,7 +66483,7 @@
       </c>
       <c r="J911" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K911" t="inlineStr">
@@ -66554,7 +66554,7 @@
       </c>
       <c r="J912" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K912" t="inlineStr">
@@ -66625,7 +66625,7 @@
       </c>
       <c r="J913" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K913" t="inlineStr">
@@ -66700,7 +66700,7 @@
       </c>
       <c r="J914" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K914" t="inlineStr">
@@ -66767,7 +66767,7 @@
       </c>
       <c r="J915" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K915" t="inlineStr">
@@ -66846,7 +66846,7 @@
       </c>
       <c r="J916" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K916" t="inlineStr">
@@ -67000,7 +67000,7 @@
       </c>
       <c r="J918" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K918" t="inlineStr">
@@ -67067,7 +67067,7 @@
       </c>
       <c r="J919" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K919" t="inlineStr">
@@ -67134,7 +67134,7 @@
       </c>
       <c r="J920" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K920" t="inlineStr">
@@ -67213,7 +67213,7 @@
       </c>
       <c r="J921" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K921" t="inlineStr">
@@ -67284,7 +67284,7 @@
       </c>
       <c r="J922" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K922" t="inlineStr">
@@ -67508,7 +67508,7 @@
       </c>
       <c r="J925" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K925" t="inlineStr">
@@ -67660,7 +67660,7 @@
       </c>
       <c r="J927" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K927" t="inlineStr">
@@ -67739,7 +67739,7 @@
       </c>
       <c r="J928" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K928" t="inlineStr">
@@ -67814,7 +67814,7 @@
       </c>
       <c r="J929" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K929" t="inlineStr">
@@ -67893,7 +67893,7 @@
       </c>
       <c r="J930" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K930" t="inlineStr">
@@ -67956,7 +67956,7 @@
       </c>
       <c r="J931" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K931" t="inlineStr">
@@ -68027,7 +68027,7 @@
       </c>
       <c r="J932" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K932" t="inlineStr">
@@ -68102,7 +68102,7 @@
       </c>
       <c r="J933" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K933" t="inlineStr">
@@ -68181,7 +68181,7 @@
       </c>
       <c r="J934" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K934" t="inlineStr">
@@ -68252,7 +68252,7 @@
       </c>
       <c r="J935" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K935" t="inlineStr">
@@ -68319,7 +68319,7 @@
       </c>
       <c r="J936" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K936" t="inlineStr">
@@ -68386,7 +68386,7 @@
       </c>
       <c r="J937" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K937" t="inlineStr">
@@ -68449,7 +68449,7 @@
       </c>
       <c r="J938" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K938" t="inlineStr">
@@ -68516,7 +68516,7 @@
       </c>
       <c r="J939" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K939" t="inlineStr">
@@ -68587,7 +68587,7 @@
       </c>
       <c r="J940" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K940" t="inlineStr">
@@ -68654,7 +68654,7 @@
       </c>
       <c r="J941" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K941" t="inlineStr">
@@ -68879,7 +68879,7 @@
       </c>
       <c r="J944" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K944" t="inlineStr">
@@ -69035,7 +69035,7 @@
       </c>
       <c r="J946" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K946" t="inlineStr">
@@ -69106,7 +69106,7 @@
       </c>
       <c r="J947" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K947" t="inlineStr">
@@ -69244,7 +69244,7 @@
       </c>
       <c r="J949" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K949" t="inlineStr">
@@ -69319,7 +69319,7 @@
       </c>
       <c r="J950" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K950" t="inlineStr">
@@ -69473,7 +69473,7 @@
       </c>
       <c r="J952" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K952" t="inlineStr">
@@ -69552,7 +69552,7 @@
       </c>
       <c r="J953" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K953" t="inlineStr">
@@ -69619,7 +69619,7 @@
       </c>
       <c r="J954" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K954" t="inlineStr">
@@ -69690,7 +69690,7 @@
       </c>
       <c r="J955" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K955" t="inlineStr">
